--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/StgCdEmp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/StgCdEmp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0DF037-D6AF-4243-AA20-E9C3303264CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4BB20-0504-4FF0-8183-9876A847F445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7332" yWindow="168" windowWidth="15564" windowHeight="12012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="298">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -176,11 +176,6 @@
     <t>業務人員任用狀況碼</t>
   </si>
   <si>
-    <t>35為15日薪
-不是35為非15日薪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">[員工身份別]
 0:單位報備
 1:在職
@@ -1023,6 +1018,11 @@
   </si>
   <si>
     <t>NVARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35:15日薪
+其他:非15日薪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1604,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1625,10 +1625,10 @@
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>21</v>
@@ -1745,10 +1745,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>3</v>
@@ -1766,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>22</v>
@@ -1781,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
@@ -1789,10 +1789,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>3</v>
@@ -1804,7 +1804,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1812,10 +1812,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>3</v>
@@ -1835,10 +1835,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>3</v>
@@ -1858,10 +1858,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>3</v>
@@ -1881,10 +1881,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>3</v>
@@ -1896,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1904,10 +1904,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>3</v>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1925,10 +1925,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>3</v>
@@ -1944,10 +1944,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>3</v>
@@ -1963,10 +1963,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>3</v>
@@ -1982,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>23</v>
@@ -2001,10 +2001,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>3</v>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -2022,10 +2022,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>3</v>
@@ -2045,10 +2045,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>3</v>
@@ -2066,10 +2066,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>3</v>
@@ -2089,10 +2089,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>3</v>
@@ -2112,10 +2112,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>3</v>
@@ -2131,10 +2131,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>3</v>
@@ -2150,10 +2150,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>3</v>
@@ -2169,10 +2169,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>3</v>
@@ -2188,10 +2188,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>3</v>
@@ -2207,10 +2207,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>3</v>
@@ -2226,10 +2226,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>3</v>
@@ -2245,10 +2245,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>3</v>
@@ -2264,10 +2264,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>3</v>
@@ -2283,10 +2283,10 @@
         <v>27</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>3</v>
@@ -2302,10 +2302,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>3</v>
@@ -2321,10 +2321,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>3</v>
@@ -2340,10 +2340,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>3</v>
@@ -2359,10 +2359,10 @@
         <v>31</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>3</v>
@@ -2378,10 +2378,10 @@
         <v>32</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>3</v>
@@ -2397,10 +2397,10 @@
         <v>33</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>3</v>
@@ -2416,10 +2416,10 @@
         <v>34</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>3</v>
@@ -2435,10 +2435,10 @@
         <v>35</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>3</v>
@@ -2454,10 +2454,10 @@
         <v>36</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>3</v>
@@ -2473,10 +2473,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>3</v>
@@ -2492,10 +2492,10 @@
         <v>38</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>3</v>
@@ -2511,10 +2511,10 @@
         <v>39</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>3</v>
@@ -2530,10 +2530,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>3</v>
@@ -2549,10 +2549,10 @@
         <v>41</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>3</v>
@@ -2568,10 +2568,10 @@
         <v>42</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>3</v>
@@ -2587,10 +2587,10 @@
         <v>43</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>3</v>
@@ -2606,10 +2606,10 @@
         <v>44</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>3</v>
@@ -2625,10 +2625,10 @@
         <v>45</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>3</v>
@@ -2644,10 +2644,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>3</v>
@@ -2663,10 +2663,10 @@
         <v>47</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>3</v>
@@ -2682,10 +2682,10 @@
         <v>48</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>3</v>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2703,10 +2703,10 @@
         <v>49</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>3</v>
@@ -2722,10 +2722,10 @@
         <v>50</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>3</v>
@@ -2741,10 +2741,10 @@
         <v>51</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>3</v>
@@ -2760,10 +2760,10 @@
         <v>52</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>3</v>
@@ -2779,10 +2779,10 @@
         <v>53</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>3</v>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2800,10 +2800,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>3</v>
@@ -2819,10 +2819,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>3</v>
@@ -2838,10 +2838,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>3</v>
@@ -2857,10 +2857,10 @@
         <v>57</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>3</v>
@@ -2876,10 +2876,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>3</v>
@@ -2895,10 +2895,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>3</v>
@@ -2914,10 +2914,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>3</v>
@@ -2933,10 +2933,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>3</v>
@@ -2952,10 +2952,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>3</v>
@@ -2971,10 +2971,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>3</v>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2992,10 +2992,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>3</v>
@@ -3011,10 +3011,10 @@
         <v>65</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>3</v>
@@ -3030,10 +3030,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>3</v>
@@ -3049,10 +3049,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>3</v>
@@ -3068,10 +3068,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>3</v>
@@ -3087,10 +3087,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>3</v>
@@ -3106,10 +3106,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>3</v>
@@ -3125,10 +3125,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>3</v>
@@ -3144,10 +3144,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>3</v>
@@ -3163,10 +3163,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>3</v>
@@ -3182,10 +3182,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>3</v>
@@ -3201,10 +3201,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>3</v>
@@ -3220,10 +3220,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>3</v>
@@ -3239,10 +3239,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>3</v>
@@ -3258,10 +3258,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>3</v>
@@ -3277,10 +3277,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>3</v>
@@ -3296,10 +3296,10 @@
         <v>80</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>3</v>
@@ -3315,10 +3315,10 @@
         <v>81</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>3</v>
@@ -3334,10 +3334,10 @@
         <v>82</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>3</v>
@@ -3353,20 +3353,20 @@
         <v>83</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E92" s="18">
         <v>100</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3374,10 +3374,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>3</v>
@@ -3393,10 +3393,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>3</v>
@@ -3412,10 +3412,10 @@
         <v>86</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D95" s="18" t="s">
         <v>3</v>
@@ -3431,10 +3431,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D96" s="18" t="s">
         <v>3</v>
@@ -3450,10 +3450,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D97" s="18" t="s">
         <v>3</v>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="F97" s="18"/>
       <c r="G97" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -3471,13 +3471,13 @@
         <v>89</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E98" s="18">
         <v>100</v>
@@ -3490,20 +3490,20 @@
         <v>90</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E99" s="18">
         <v>100</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -3511,10 +3511,10 @@
         <v>91</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>3</v>
@@ -3530,13 +3530,13 @@
         <v>92</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E101" s="18">
         <v>10</v>
@@ -3549,13 +3549,13 @@
         <v>93</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E102" s="18">
         <v>100</v>
@@ -3568,10 +3568,10 @@
         <v>94</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>3</v>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -3589,13 +3589,13 @@
         <v>95</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E104" s="18">
         <v>10</v>
@@ -3608,20 +3608,20 @@
         <v>96</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E105" s="18">
         <v>100</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3629,10 +3629,10 @@
         <v>97</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>3</v>
@@ -3648,13 +3648,13 @@
         <v>98</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E107" s="18">
         <v>100</v>
@@ -3667,10 +3667,10 @@
         <v>99</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>3</v>
@@ -3686,13 +3686,13 @@
         <v>100</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E109" s="18">
         <v>100</v>
@@ -3705,10 +3705,10 @@
         <v>101</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>3</v>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -3726,20 +3726,20 @@
         <v>102</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E111" s="18">
         <v>10</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -3747,10 +3747,10 @@
         <v>103</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>3</v>
@@ -3766,10 +3766,10 @@
         <v>104</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>3</v>
@@ -3785,10 +3785,10 @@
         <v>105</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>3</v>
@@ -3804,10 +3804,10 @@
         <v>106</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D115" s="18" t="s">
         <v>3</v>
@@ -3823,10 +3823,10 @@
         <v>107</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>3</v>
@@ -3842,10 +3842,10 @@
         <v>108</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>3</v>
@@ -3861,10 +3861,10 @@
         <v>109</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D118" s="18" t="s">
         <v>3</v>
@@ -3880,10 +3880,10 @@
         <v>110</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>3</v>
@@ -3899,10 +3899,10 @@
         <v>111</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D120" s="18" t="s">
         <v>3</v>
@@ -3918,10 +3918,10 @@
         <v>112</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D121" s="18" t="s">
         <v>3</v>
@@ -3937,10 +3937,10 @@
         <v>113</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>3</v>
@@ -3956,10 +3956,10 @@
         <v>114</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>3</v>
@@ -3975,10 +3975,10 @@
         <v>115</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D124" s="18" t="s">
         <v>3</v>
@@ -3994,10 +3994,10 @@
         <v>116</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>3</v>
@@ -4013,10 +4013,10 @@
         <v>117</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>3</v>
@@ -4032,10 +4032,10 @@
         <v>118</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>3</v>
@@ -4051,13 +4051,13 @@
         <v>119</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E128" s="18">
         <v>20</v>
@@ -4070,10 +4070,10 @@
         <v>120</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>3</v>
@@ -4089,10 +4089,10 @@
         <v>121</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>3</v>
@@ -4108,10 +4108,10 @@
         <v>122</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>3</v>
@@ -4127,10 +4127,10 @@
         <v>123</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>3</v>
@@ -4146,10 +4146,10 @@
         <v>124</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>3</v>
@@ -4165,13 +4165,13 @@
         <v>125</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E134" s="18">
         <v>100</v>
@@ -4184,10 +4184,10 @@
         <v>126</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>3</v>
@@ -4203,10 +4203,10 @@
         <v>127</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D136" s="18" t="s">
         <v>3</v>
@@ -4222,10 +4222,10 @@
         <v>128</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D137" s="18" t="s">
         <v>3</v>
@@ -4241,10 +4241,10 @@
         <v>129</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D138" s="18" t="s">
         <v>3</v>
@@ -4260,13 +4260,13 @@
         <v>130</v>
       </c>
       <c r="B139" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" s="18" t="s">
         <v>291</v>
-      </c>
-      <c r="C139" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D139" s="18" t="s">
-        <v>292</v>
       </c>
       <c r="E139" s="18">
         <v>100</v>
@@ -4321,13 +4321,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
